--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,12 @@
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -67,91 +64,106 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>nice</t>
@@ -160,91 +172,94 @@
     <t>years</t>
   </si>
   <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>every</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>hot</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>really</t>
   </si>
   <si>
     <t>like</t>
@@ -253,16 +268,19 @@
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>used</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -623,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9310344827586207</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,16 +781,16 @@
         <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.8985507246376812</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,16 +831,16 @@
         <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +860,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.404040404040404</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8622291021671826</v>
+        <v>0.8513931888544891</v>
       </c>
       <c r="L6">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="M6">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3488372093023256</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2948717948717949</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,69 +978,45 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L8">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.7445887445887446</v>
-      </c>
-      <c r="L8">
-        <v>172</v>
-      </c>
-      <c r="M8">
-        <v>172</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1675675675675676</v>
-      </c>
-      <c r="C9">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>154</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.7012987012987013</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.684931506849315</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="M10">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.6813559322033899</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L11">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="M11">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.6491228070175439</v>
+        <v>0.671875</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.647887323943662</v>
+        <v>0.6581059390048154</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>820</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>820</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1164,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6468699839486356</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L15">
-        <v>806</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>806</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1190,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>440</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.6285714285714286</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1216,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1242,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.5972222222222222</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1268,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.5942857142857143</v>
+        <v>0.5865384615384616</v>
       </c>
       <c r="L19">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1294,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5909090909090909</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1320,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5882352941176471</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1346,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5846153846153846</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1372,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.578125</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1398,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5526315789473685</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1424,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L25">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1450,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5269461077844312</v>
+        <v>0.51</v>
       </c>
       <c r="L26">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1476,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5060240963855421</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1502,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4583333333333333</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1528,47 +1522,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="L29">
+        <v>34</v>
+      </c>
+      <c r="M29">
+        <v>34</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>42</v>
-      </c>
-      <c r="K29">
-        <v>0.4457831325301205</v>
-      </c>
-      <c r="L29">
-        <v>74</v>
-      </c>
-      <c r="M29">
-        <v>74</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.43</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1580,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4285714285714285</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L31">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M31">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1606,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4262295081967213</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1632,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4142156862745098</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L33">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1658,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>239</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3618677042801556</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L34">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1684,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>164</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3538461538461539</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1710,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>42</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.3452054794520548</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1736,47 +1730,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>478</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.382716049382716</v>
+      </c>
+      <c r="L37">
+        <v>31</v>
+      </c>
+      <c r="M37">
+        <v>31</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>50</v>
-      </c>
-      <c r="K37">
-        <v>0.3237410071942446</v>
-      </c>
-      <c r="L37">
-        <v>45</v>
-      </c>
-      <c r="M37">
-        <v>45</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>94</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.3209876543209876</v>
+        <v>0.3700980392156863</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1788,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>55</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.3157894736842105</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L39">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M39">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1814,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>91</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.2966507177033493</v>
+        <v>0.3342465753424658</v>
       </c>
       <c r="L40">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="M40">
-        <v>62</v>
+        <v>244</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1840,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>147</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.2882882882882883</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1866,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.2871287128712871</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1892,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.2744886975242196</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L43">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1918,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>674</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.2685185185185185</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1944,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>79</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.2582781456953642</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1970,47 +1964,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2232142857142857</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K47">
-        <v>0.2214765100671141</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L47">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2022,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.219435736677116</v>
+        <v>0.263724434876211</v>
       </c>
       <c r="L48">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="M48">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2048,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>249</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.2162162162162162</v>
+        <v>0.2450331125827815</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2074,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2158940397350993</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="L50">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2100,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>592</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2148337595907928</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="L51">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2126,99 +2120,99 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>614</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.1734417344173442</v>
+        <v>0.223841059602649</v>
       </c>
       <c r="L52">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="M52">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>305</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.1644736842105263</v>
+        <v>0.2087067861715749</v>
       </c>
       <c r="L53">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="M53">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>381</v>
+        <v>618</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.1626794258373206</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="L54">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M54">
         <v>69</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>350</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.1585365853658537</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2230,47 +2224,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>138</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.15</v>
+        <v>0.1717791411042945</v>
       </c>
       <c r="L56">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>374</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.134020618556701</v>
+        <v>0.162280701754386</v>
       </c>
       <c r="L57">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="M57">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2282,21 +2276,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>252</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.1330049261083744</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2308,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.1328413284132841</v>
+        <v>0.1599045346062052</v>
       </c>
       <c r="L59">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M59">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2334,41 +2328,41 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>235</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1313868613138686</v>
+        <v>0.1486988847583643</v>
       </c>
       <c r="L60">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="M60">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>357</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K61">
-        <v>0.1299435028248588</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="L61">
         <v>23</v>
@@ -2386,47 +2380,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1134453781512605</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M62">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1111111111111111</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="L63">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M63">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2438,73 +2432,73 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.09195402298850575</v>
+        <v>0.125</v>
       </c>
       <c r="L64">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M64">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N64">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>632</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.08309990662931839</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L65">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M65">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="N65">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>982</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K66">
-        <v>0.07377049180327869</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M66">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2516,85 +2510,267 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>339</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K67">
-        <v>0.05276816608996539</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="L67">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M67">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1095</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K68">
-        <v>0.05175600739371534</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L68">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M68">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>513</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K69">
+        <v>0.08469945355191257</v>
+      </c>
+      <c r="L69">
+        <v>31</v>
+      </c>
+      <c r="M69">
+        <v>31</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K69">
-        <v>0.04624277456647399</v>
-      </c>
-      <c r="L69">
+      <c r="K70">
+        <v>0.07471264367816093</v>
+      </c>
+      <c r="L70">
+        <v>52</v>
+      </c>
+      <c r="M70">
+        <v>54</v>
+      </c>
+      <c r="N70">
+        <v>0.96</v>
+      </c>
+      <c r="O70">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K71">
+        <v>0.07096171802054155</v>
+      </c>
+      <c r="L71">
+        <v>76</v>
+      </c>
+      <c r="M71">
+        <v>77</v>
+      </c>
+      <c r="N71">
+        <v>0.99</v>
+      </c>
+      <c r="O71">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K72">
+        <v>0.06320346320346321</v>
+      </c>
+      <c r="L72">
+        <v>73</v>
+      </c>
+      <c r="M72">
+        <v>75</v>
+      </c>
+      <c r="N72">
+        <v>0.97</v>
+      </c>
+      <c r="O72">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73">
+        <v>0.06053268765133172</v>
+      </c>
+      <c r="L73">
+        <v>25</v>
+      </c>
+      <c r="M73">
+        <v>26</v>
+      </c>
+      <c r="N73">
+        <v>0.96</v>
+      </c>
+      <c r="O73">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K74">
+        <v>0.05185185185185185</v>
+      </c>
+      <c r="L74">
+        <v>28</v>
+      </c>
+      <c r="M74">
+        <v>30</v>
+      </c>
+      <c r="N74">
+        <v>0.93</v>
+      </c>
+      <c r="O74">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K75">
+        <v>0.04615384615384616</v>
+      </c>
+      <c r="L75">
         <v>24</v>
       </c>
-      <c r="M69">
-        <v>27</v>
-      </c>
-      <c r="N69">
-        <v>0.89</v>
-      </c>
-      <c r="O69">
-        <v>0.11</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>495</v>
+      <c r="M75">
+        <v>26</v>
+      </c>
+      <c r="N75">
+        <v>0.92</v>
+      </c>
+      <c r="O75">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K76">
+        <v>0.03664921465968586</v>
+      </c>
+      <c r="L76">
+        <v>28</v>
+      </c>
+      <c r="M76">
+        <v>31</v>
+      </c>
+      <c r="N76">
+        <v>0.9</v>
+      </c>
+      <c r="O76">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
